--- a/Progression/Progression_PTSI_2013-2014.xlsx
+++ b/Progression/Progression_PTSI_2013-2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="2745" windowWidth="15600" windowHeight="1170" tabRatio="819"/>
+    <workbookView xWindow="-15" yWindow="2745" windowWidth="15600" windowHeight="1170" tabRatio="819" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Programme" sheetId="100" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="1150">
   <si>
     <t>CI 1</t>
   </si>
@@ -3528,15 +3528,6 @@
     <t>SN - Réseaux - TCP IP</t>
   </si>
   <si>
-    <t>Statique - Modélisation des actions de contact</t>
-  </si>
-  <si>
-    <t>Usinage conventionnel
-Découverte matériaux (CES + Traction ?)
-Découverte statique (SW)
-SED (Actionnair)</t>
-  </si>
-  <si>
     <t>Interrogation tracé de Bode.
 DS Cinématique graphique et SLCI.</t>
   </si>
@@ -3560,6 +3551,43 @@
   </si>
   <si>
     <t>CI6</t>
+  </si>
+  <si>
+    <t>Correction du concours blanc</t>
+  </si>
+  <si>
+    <t>Exercices d'application- Géométrie des masses</t>
+  </si>
+  <si>
+    <t>Statique - Modélisation des actions mécaniques</t>
+  </si>
+  <si>
+    <t>TD - Modélisation des Actions mécaniques - barrage…</t>
+  </si>
+  <si>
+    <t>Usinage conventionnel
+Systèmes numériques - Programmation d'un système combinatoire (SOMFY)
+Systèmes numériques - Cablâge électrique et pneumatique
+Cinématique plane - Essuie glace BOSCH</t>
+  </si>
+  <si>
+    <t>Colles combinatoire et Bode</t>
+  </si>
+  <si>
+    <t>TD - Modélisation des Actions mécaniques - frottement Coulomb</t>
+  </si>
+  <si>
+    <t>Statique - Modélisation des actions mécaniques - frottement</t>
+  </si>
+  <si>
+    <t>Statique - PFS</t>
+  </si>
+  <si>
+    <t>Interros - Pressions de contacts 
+DS - Exos statique et combinatoire - Modélisation cinématique - Matériaux</t>
+  </si>
+  <si>
+    <t>Synthèse de TP Usinage CN et Petits déplacements</t>
   </si>
 </sst>
 </file>
@@ -5471,8 +5499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D267" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E284" sqref="E284:F284"/>
+    <sheetView topLeftCell="D267" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E276" sqref="E276:F277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8103,7 +8131,7 @@
     </row>
     <row r="220" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B220" s="15" t="s">
         <v>1011</v>
@@ -8122,7 +8150,7 @@
     </row>
     <row r="221" spans="1:8" s="28" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="28" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B221" s="28" t="s">
         <v>1011</v>
@@ -8139,7 +8167,7 @@
     </row>
     <row r="222" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="28" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B222" s="28" t="s">
         <v>1011</v>
@@ -8156,7 +8184,7 @@
     </row>
     <row r="223" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="28" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B223" s="28" t="s">
         <v>1011</v>
@@ -8173,7 +8201,7 @@
     </row>
     <row r="224" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="23" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B224" s="23" t="s">
         <v>1011</v>
@@ -8190,7 +8218,7 @@
     </row>
     <row r="225" spans="1:8" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="23" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B225" s="23" t="s">
         <v>1011</v>
@@ -8207,7 +8235,7 @@
     </row>
     <row r="226" spans="1:8" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="23" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B226" s="23" t="s">
         <v>1011</v>
@@ -8224,7 +8252,7 @@
     </row>
     <row r="227" spans="1:8" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="23" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B227" s="23" t="s">
         <v>1011</v>
@@ -8241,7 +8269,7 @@
     </row>
     <row r="228" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="28" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B228" s="28" t="s">
         <v>1012</v>
@@ -8260,7 +8288,7 @@
     </row>
     <row r="229" spans="1:8" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="23" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B229" s="23" t="s">
         <v>1012</v>
@@ -11429,8 +11457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J297"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11518,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11655,7 +11683,7 @@
         <v>367</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -13894,7 +13922,7 @@
         <v>357</v>
       </c>
       <c r="D173" s="86" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E173" s="183"/>
       <c r="F173" s="86"/>
@@ -14004,7 +14032,7 @@
         <v>357</v>
       </c>
       <c r="D181" s="85" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E181" s="183"/>
       <c r="F181" s="86"/>
@@ -14017,7 +14045,7 @@
         <v>358</v>
       </c>
       <c r="D182" s="88" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E182" s="185"/>
       <c r="F182" s="89"/>
@@ -14068,7 +14096,9 @@
       <c r="C186" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D186" s="113"/>
+      <c r="D186" s="113" t="s">
+        <v>1101</v>
+      </c>
       <c r="E186" s="194"/>
       <c r="F186" s="114"/>
       <c r="G186" s="115"/>
@@ -14090,7 +14120,9 @@
       <c r="C188" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D188" s="113"/>
+      <c r="D188" s="113" t="s">
+        <v>1139</v>
+      </c>
       <c r="E188" s="183"/>
       <c r="F188" s="86"/>
       <c r="G188" s="87"/>
@@ -14112,7 +14144,9 @@
       <c r="C190" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D190" s="85"/>
+      <c r="D190" s="85" t="s">
+        <v>1101</v>
+      </c>
       <c r="E190" s="183"/>
       <c r="F190" s="86"/>
       <c r="G190" s="87"/>
@@ -14150,7 +14184,7 @@
         <v>13</v>
       </c>
       <c r="D193" s="116" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
       <c r="E193" s="195"/>
       <c r="F193" s="117"/>
@@ -14162,7 +14196,9 @@
       <c r="C194" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D194" s="119"/>
+      <c r="D194" s="119" t="s">
+        <v>1140</v>
+      </c>
       <c r="E194" s="196"/>
       <c r="F194" s="120"/>
       <c r="G194" s="121"/>
@@ -14246,7 +14282,7 @@
         <v>13</v>
       </c>
       <c r="D201" s="116" t="s">
-        <v>7</v>
+        <v>1141</v>
       </c>
       <c r="E201" s="195"/>
       <c r="F201" s="117"/>
@@ -14258,7 +14294,9 @@
       <c r="C202" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="119"/>
+      <c r="D202" s="119" t="s">
+        <v>1142</v>
+      </c>
       <c r="E202" s="196"/>
       <c r="F202" s="120"/>
       <c r="G202" s="121"/>
@@ -14269,19 +14307,21 @@
       <c r="C203" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D203" s="85"/>
+      <c r="D203" s="85" t="s">
+        <v>112</v>
+      </c>
       <c r="E203" s="183"/>
       <c r="F203" s="86"/>
       <c r="G203" s="87"/>
     </row>
-    <row r="204" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="253"/>
       <c r="B204" s="256"/>
       <c r="C204" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D204" s="86" t="s">
-        <v>1132</v>
+        <v>1149</v>
       </c>
       <c r="E204" s="183"/>
       <c r="F204" s="86"/>
@@ -14298,13 +14338,15 @@
       <c r="F205" s="86"/>
       <c r="G205" s="87"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="253"/>
       <c r="B206" s="256"/>
       <c r="C206" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D206" s="85"/>
+      <c r="D206" s="86" t="s">
+        <v>1148</v>
+      </c>
       <c r="E206" s="183"/>
       <c r="F206" s="86"/>
       <c r="G206" s="87"/>
@@ -14315,7 +14357,9 @@
       <c r="C207" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D207" s="88"/>
+      <c r="D207" s="88" t="s">
+        <v>1144</v>
+      </c>
       <c r="E207" s="185"/>
       <c r="F207" s="89"/>
       <c r="G207" s="90"/>
@@ -14342,7 +14386,7 @@
         <v>13</v>
       </c>
       <c r="D209" s="122" t="s">
-        <v>7</v>
+        <v>1146</v>
       </c>
       <c r="E209" s="197"/>
       <c r="F209" s="123"/>
@@ -14354,7 +14398,9 @@
       <c r="C210" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D210" s="119"/>
+      <c r="D210" s="119" t="s">
+        <v>1145</v>
+      </c>
       <c r="E210" s="196"/>
       <c r="F210" s="120"/>
       <c r="G210" s="121"/>
@@ -14377,7 +14423,7 @@
         <v>10</v>
       </c>
       <c r="D212" s="86" t="s">
-        <v>1132</v>
+        <v>1143</v>
       </c>
       <c r="E212" s="183"/>
       <c r="F212" s="86"/>
@@ -14438,7 +14484,7 @@
         <v>13</v>
       </c>
       <c r="D217" s="116" t="s">
-        <v>7</v>
+        <v>1147</v>
       </c>
       <c r="E217" s="195"/>
       <c r="F217" s="117"/>
@@ -14473,7 +14519,7 @@
         <v>10</v>
       </c>
       <c r="D220" s="86" t="s">
-        <v>1132</v>
+        <v>1143</v>
       </c>
       <c r="E220" s="183"/>
       <c r="F220" s="86"/>
@@ -14562,13 +14608,15 @@
       <c r="F227" s="86"/>
       <c r="G227" s="87"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="253"/>
       <c r="B228" s="256"/>
       <c r="C228" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D228" s="85"/>
+      <c r="D228" s="86" t="s">
+        <v>1143</v>
+      </c>
       <c r="E228" s="183"/>
       <c r="F228" s="86"/>
       <c r="G228" s="87"/>
@@ -15015,7 +15063,7 @@
         <v>13</v>
       </c>
       <c r="D266" s="131" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E266" s="200"/>
       <c r="F266" s="132"/>
@@ -15109,7 +15157,7 @@
         <v>13</v>
       </c>
       <c r="D274" s="125" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E274" s="198"/>
       <c r="F274" s="126"/>
@@ -15203,7 +15251,7 @@
         <v>13</v>
       </c>
       <c r="D282" s="125" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E282" s="201"/>
       <c r="F282" s="134"/>
